--- a/public/excel/WorkingArea.xlsx
+++ b/public/excel/WorkingArea.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\redaxa\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivansandoya/Documents/works/customers/redaxa/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4365" windowHeight="8985"/>
+    <workbookView xWindow="8120" yWindow="3980" windowWidth="20680" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -32,22 +32,55 @@
     <t>name</t>
   </si>
   <si>
-    <t>Area 5</t>
-  </si>
-  <si>
-    <t>Area 6</t>
-  </si>
-  <si>
-    <t>Area 7</t>
-  </si>
-  <si>
-    <t>Area 8</t>
+    <t xml:space="preserve">Aseguramiento de la calidad </t>
+  </si>
+  <si>
+    <t>Desarrollo organizacional / Proyectos</t>
+  </si>
+  <si>
+    <t>Finanzas / Contabilidad</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Recursos humanos</t>
+  </si>
+  <si>
+    <t>Riesgos</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Servicio al cliente</t>
+  </si>
+  <si>
+    <t>Departamento médico</t>
+  </si>
+  <si>
+    <t>Innovación</t>
+  </si>
+  <si>
+    <t>Investigación y desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operaciones / Producción </t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>TICs / Sistemas</t>
+  </si>
+  <si>
+    <t>Otra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,19 +391,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,36 +411,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
